--- a/00_計画/タスク一覧.xlsx
+++ b/00_計画/タスク一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -253,6 +253,10 @@
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これからやるよ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -834,7 +838,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1065,7 +1069,9 @@
       <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="2">

--- a/00_計画/タスク一覧.xlsx
+++ b/00_計画/タスク一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -128,9 +128,6 @@
     <t>未着手</t>
   </si>
   <si>
-    <t>着手</t>
-  </si>
-  <si>
     <t>完了</t>
   </si>
   <si>
@@ -253,10 +250,6 @@
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これからやるよ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -838,7 +831,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -857,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -877,13 +870,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -892,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>3</v>
@@ -919,16 +912,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>14</v>
@@ -958,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -985,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -1000,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
@@ -1033,16 +1026,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -1058,20 +1051,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
@@ -1082,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -1094,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1107,19 +1098,19 @@
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1132,19 +1123,19 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -1157,7 +1148,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
@@ -1166,13 +1157,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">

--- a/00_計画/タスク一覧.xlsx
+++ b/00_計画/タスク一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -251,6 +251,9 @@
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>着手</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1020,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>

--- a/00_計画/タスク一覧.xlsx
+++ b/00_計画/タスク一覧.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="作業" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">タスク一覧!$B$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業!$A$3:$G$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -72,10 +74,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スプリングフレームワーク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
@@ -143,14 +141,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CSS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>期限</t>
     <rPh sb="0" eb="2">
       <t>キゲン</t>
@@ -172,10 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -204,18 +190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5/22</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5/29</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>開発</t>
     <rPh sb="0" eb="2">
       <t>カイハツ</t>
@@ -253,7 +227,258 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SourceTree</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プッシュできるようにすること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>着手</t>
+  </si>
+  <si>
+    <t>会員登録画面</t>
+    <rPh sb="0" eb="6">
+      <t>カイイントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビデオチャット画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■サーバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■データベース設計</t>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラグイン（Pear）のインプット、実装</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバーの構築</t>
+    <rPh sb="5" eb="7">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリングフレームワーク</t>
+  </si>
+  <si>
+    <t>スプリングフレームワーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アスタでテーブル定義の読み込み→ER図作成</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■アプリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AWS環境の整備</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Todo（作業単位）</t>
+    <rPh sb="5" eb="7">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤池</t>
+    <rPh sb="0" eb="2">
+      <t>アカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバー構築</t>
+    <rPh sb="4" eb="6">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤池</t>
+    <rPh sb="0" eb="2">
+      <t>アカイケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11月（応用以降）</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTML、CSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順序①</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順序②</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順序③</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順序①※ビデオチャットの実装に必要</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順序④</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -283,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +521,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -357,90 +588,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -471,6 +618,64 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -483,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,39 +699,441 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFCCFFCC"/>
@@ -832,111 +1439,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.53125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.36328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="10">
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B37" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -951,19 +1558,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -978,25 +1585,25 @@
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
@@ -1005,474 +1612,505 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B32" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B33" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B34" s="6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35" s="6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B36" s="6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B37" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:I3"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B4:I37">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="43" priority="1">
+      <formula>$C4="着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>$C4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1484,4 +2122,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A13" si="0">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <f t="shared" ref="A8:A18" si="1">ROW()-3</f>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:G18"/>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A4:E4 A16:E21 B5:E15 F4:G21">
+    <cfRule type="expression" dxfId="41" priority="3">
+      <formula>$B4="着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="4">
+      <formula>$B4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A15">
+    <cfRule type="expression" dxfId="39" priority="1">
+      <formula>$B5="着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="2">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B21">
+      <formula1>" 未着手,着手,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>